--- a/Output/Chiarion_1992 Chiarion 1992 OS DTIC parameters.xlsx
+++ b/Output/Chiarion_1992 Chiarion 1992 OS DTIC parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.35992376256339</v>
+        <v>-2.28927585322432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.309719915328088</v>
+        <v>0.263546347264198</v>
       </c>
       <c r="D2" t="n">
         <v>127.786152951054</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.153144231507661</v>
+        <v>-0.107253607990594</v>
       </c>
       <c r="C3" t="n">
-        <v>0.150161873039823</v>
+        <v>0.169984735668374</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.52166620795309</v>
+        <v>1.52982703612423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.333572687350795</v>
+        <v>0.343917875306103</v>
       </c>
       <c r="D2" t="n">
         <v>124.954215068145</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.773932916603465</v>
+        <v>-0.830115526445352</v>
       </c>
       <c r="C3" t="n">
-        <v>0.135974053392742</v>
+        <v>0.186708829854108</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.9482535140164</v>
+        <v>-1.83920081528535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.320334372530899</v>
+        <v>0.283458625754857</v>
       </c>
       <c r="D2" t="n">
         <v>125.427339299076</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.32235172671317</v>
+        <v>1.43323566724509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.262812832553977</v>
+        <v>0.380173870798206</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.2271083115886</v>
+        <v>-2.15271197631863</v>
       </c>
       <c r="C2" t="n">
-        <v>0.34245155985288</v>
+        <v>0.295240845282059</v>
       </c>
       <c r="D2" t="n">
         <v>126.146549004982</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0377432470081011</v>
+        <v>-0.0312207305439134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.030834685943283</v>
+        <v>0.0287361000618847</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0959264259508379</v>
+        <v>0.0694566771563014</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0218092681903502</v>
+        <v>-0.0143544642403251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0218092681903502</v>
+        <v>-0.0143544642403251</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0225485881148278</v>
+        <v>0.0288948103602471</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.111270737746431</v>
+        <v>0.118279504955064</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0303399210140507</v>
+        <v>-0.0477083810907798</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0303399210140507</v>
+        <v>-0.0477083810907798</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0184889431960524</v>
+        <v>0.0348601871454903</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.102614110224765</v>
+        <v>0.0803487925148324</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0117860403329519</v>
+        <v>0.0219698548481498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0117860403329519</v>
+        <v>0.0219698548481498</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0690705849550449</v>
+        <v>0.144532172037691</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.117273070845671</v>
+        <v>0.0871671567228649</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00652736343257616</v>
+        <v>-0.00352109315215479</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00652736343257616</v>
+        <v>-0.00352109315215479</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000950777857220891</v>
+        <v>0.000825763446766651</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Chiarion_1992 Chiarion 1992 OS DTIC parameters.xlsx
+++ b/Output/Chiarion_1992 Chiarion 1992 OS DTIC parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.28927585322432</v>
+        <v>-2.35992376256339</v>
       </c>
       <c r="C2" t="n">
-        <v>0.263546347264198</v>
+        <v>0.309719915328088</v>
       </c>
       <c r="D2" t="n">
         <v>127.786152951054</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.107253607990594</v>
+        <v>-0.153144231507661</v>
       </c>
       <c r="C3" t="n">
-        <v>0.169984735668374</v>
+        <v>0.150161873039823</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.52982703612423</v>
+        <v>1.52166620795309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.343917875306103</v>
+        <v>0.333572687350795</v>
       </c>
       <c r="D2" t="n">
         <v>124.954215068145</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.830115526445352</v>
+        <v>-0.773932916603465</v>
       </c>
       <c r="C3" t="n">
-        <v>0.186708829854108</v>
+        <v>0.135974053392742</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.83920081528535</v>
+        <v>-1.9482535140164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.283458625754857</v>
+        <v>0.320334372530899</v>
       </c>
       <c r="D2" t="n">
         <v>125.427339299076</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.43323566724509</v>
+        <v>0.261024068593365</v>
       </c>
       <c r="C3" t="n">
-        <v>0.380173870798206</v>
+        <v>0.189629506963794</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.15271197631863</v>
+        <v>-2.2271083115886</v>
       </c>
       <c r="C2" t="n">
-        <v>0.295240845282059</v>
+        <v>0.34245155985288</v>
       </c>
       <c r="D2" t="n">
         <v>126.146549004982</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0312207305439134</v>
+        <v>-0.0377432470081011</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0287361000618847</v>
+        <v>0.030834685943283</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0694566771563014</v>
+        <v>0.0959264259508379</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0143544642403251</v>
+        <v>-0.0218092681903502</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0143544642403251</v>
+        <v>-0.0218092681903502</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0288948103602471</v>
+        <v>0.0225485881148278</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.118279504955064</v>
+        <v>0.111270737746431</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0477083810907798</v>
+        <v>-0.0303399210140507</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0477083810907798</v>
+        <v>-0.0303399210140507</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0348601871454903</v>
+        <v>0.0184889431960524</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0803487925148324</v>
+        <v>0.102614110224765</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0219698548481498</v>
+        <v>0.00923537545251059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0219698548481498</v>
+        <v>0.00923537545251059</v>
       </c>
       <c r="B3" t="n">
-        <v>0.144532172037691</v>
+        <v>0.0359593499113315</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0871671567228649</v>
+        <v>0.117273070845671</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00352109315215479</v>
+        <v>-0.00652736343257616</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00352109315215479</v>
+        <v>-0.00652736343257616</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000825763446766651</v>
+        <v>0.000950777857220891</v>
       </c>
     </row>
   </sheetData>
